--- a/CleaningStore.xlsx
+++ b/CleaningStore.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243">
   <si>
     <t>customerTable顾客表</t>
   </si>
@@ -103,142 +103,173 @@
     <t>customerFamilies</t>
   </si>
   <si>
+    <t>账户余额</t>
+  </si>
+  <si>
+    <t>accountBalance</t>
+  </si>
+  <si>
+    <t>支付时间</t>
+  </si>
+  <si>
+    <t>paymentdate</t>
+  </si>
+  <si>
+    <t>time with time zone</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>paymenttable消费明细表</t>
+  </si>
+  <si>
+    <t>消费记录番号</t>
+  </si>
+  <si>
+    <t>paymentNumber</t>
+  </si>
+  <si>
+    <t>消费种类</t>
+  </si>
+  <si>
+    <t>consumeType</t>
+  </si>
+  <si>
+    <t>1充值
+2消费</t>
+  </si>
+  <si>
+    <t>支付方式</t>
+  </si>
+  <si>
+    <t>paymentWay</t>
+  </si>
+  <si>
+    <t>现金，微信，支付宝，...</t>
+  </si>
+  <si>
+    <t>订单号码</t>
+  </si>
+  <si>
+    <t>orderNumber</t>
+  </si>
+  <si>
+    <t>充值时无订单发生，故不添加外键</t>
+  </si>
+  <si>
+    <t>扣费洗涤物品一连番号</t>
+  </si>
+  <si>
+    <t>cleanthingnumber</t>
+  </si>
+  <si>
+    <t>扣费洗涤物品一连明细番号</t>
+  </si>
+  <si>
+    <t>cleanThingDetailsNumber</t>
+  </si>
+  <si>
+    <t>消费价格</t>
+  </si>
+  <si>
+    <t>thingPrice</t>
+  </si>
+  <si>
     <t>充值金额</t>
   </si>
   <si>
-    <t>accountPayment</t>
-  </si>
-  <si>
-    <t>账户余额</t>
-  </si>
-  <si>
-    <t>accountBalance</t>
-  </si>
-  <si>
-    <t>支付时间</t>
-  </si>
-  <si>
-    <t>paymentdate</t>
-  </si>
-  <si>
-    <t>time with time zone</t>
-  </si>
-  <si>
-    <t>now()</t>
-  </si>
-  <si>
-    <t>paymenttable消费明细表</t>
-  </si>
-  <si>
-    <t>消费记录番号</t>
-  </si>
-  <si>
-    <t>paymentNumber</t>
-  </si>
-  <si>
-    <t>扣费洗涤物品一连番号</t>
+    <t>chargePayment</t>
+  </si>
+  <si>
+    <t>扣费/充值前余额</t>
+  </si>
+  <si>
+    <t>accountBalanceBefore</t>
+  </si>
+  <si>
+    <t>扣费/充值后账户余额</t>
+  </si>
+  <si>
+    <t>accountBalanceAtfer</t>
+  </si>
+  <si>
+    <t>扣费/充值备注</t>
+  </si>
+  <si>
+    <t>paymengtMemo</t>
+  </si>
+  <si>
+    <t>记录发生时间</t>
+  </si>
+  <si>
+    <t>thingTable物品对照表</t>
+  </si>
+  <si>
+    <t>物品番号</t>
+  </si>
+  <si>
+    <t>thingNumber</t>
+  </si>
+  <si>
+    <t>物品类型名</t>
+  </si>
+  <si>
+    <t>thingName</t>
+  </si>
+  <si>
+    <t>storeTable店铺表</t>
+  </si>
+  <si>
+    <t>店铺番号</t>
+  </si>
+  <si>
+    <t>storeNumber</t>
+  </si>
+  <si>
+    <t>店铺名</t>
+  </si>
+  <si>
+    <t>storeName</t>
+  </si>
+  <si>
+    <t>店铺地址</t>
+  </si>
+  <si>
+    <t>storeAddress</t>
+  </si>
+  <si>
+    <t>washWayTable洗涤方式表</t>
+  </si>
+  <si>
+    <t>洗涤方式番号</t>
+  </si>
+  <si>
+    <t>washWayNumber</t>
+  </si>
+  <si>
+    <t>洗涤方式名</t>
+  </si>
+  <si>
+    <t>washWayName</t>
+  </si>
+  <si>
+    <t>orderTable订单表</t>
+  </si>
+  <si>
+    <t>订单番号</t>
+  </si>
+  <si>
+    <t>下单顾客番号</t>
+  </si>
+  <si>
+    <t>接单店铺号</t>
+  </si>
+  <si>
+    <t>洗涤物品一连番号</t>
   </si>
   <si>
     <t>cleanThingNumber</t>
-  </si>
-  <si>
-    <t>扣费洗涤物品一连明细番号</t>
-  </si>
-  <si>
-    <t>cleanThingDetailsNumber</t>
-  </si>
-  <si>
-    <t>消费价格</t>
-  </si>
-  <si>
-    <t>thingPrice</t>
-  </si>
-  <si>
-    <t>扣费前余额</t>
-  </si>
-  <si>
-    <t>accountBalanceBefore</t>
-  </si>
-  <si>
-    <t>扣费后账户余额</t>
-  </si>
-  <si>
-    <t>accountBalanceAtfer</t>
-  </si>
-  <si>
-    <t>扣费备注</t>
-  </si>
-  <si>
-    <t>paymengtMemo</t>
-  </si>
-  <si>
-    <t>thingTable物品对照表</t>
-  </si>
-  <si>
-    <t>物品番号</t>
-  </si>
-  <si>
-    <t>thingNumber</t>
-  </si>
-  <si>
-    <t>物品类型名</t>
-  </si>
-  <si>
-    <t>thingName</t>
-  </si>
-  <si>
-    <t>storeTable店铺表</t>
-  </si>
-  <si>
-    <t>店铺番号</t>
-  </si>
-  <si>
-    <t>storeNumber</t>
-  </si>
-  <si>
-    <t>店铺名</t>
-  </si>
-  <si>
-    <t>storeName</t>
-  </si>
-  <si>
-    <t>店铺地址</t>
-  </si>
-  <si>
-    <t>storeAddress</t>
-  </si>
-  <si>
-    <t>washWayTable洗涤方式表</t>
-  </si>
-  <si>
-    <t>洗涤方式番号</t>
-  </si>
-  <si>
-    <t>washWayNumber</t>
-  </si>
-  <si>
-    <t>洗涤方式名</t>
-  </si>
-  <si>
-    <t>washWayName</t>
-  </si>
-  <si>
-    <t>orderTable订单表</t>
-  </si>
-  <si>
-    <t>订单番号</t>
-  </si>
-  <si>
-    <t>orderNumber</t>
-  </si>
-  <si>
-    <t>下单顾客番号</t>
-  </si>
-  <si>
-    <t>接单店铺号</t>
-  </si>
-  <si>
-    <t>洗涤物品一连番号</t>
   </si>
   <si>
     <t>orderDetailsTable洗涤物表</t>
@@ -727,9 +758,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -741,14 +772,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,24 +816,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,25 +830,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,6 +862,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -845,27 +885,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -878,7 +909,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,31 +936,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,13 +972,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +1002,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,25 +1038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1013,19 +1050,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,19 +1074,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1067,25 +1092,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,32 +1145,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1164,11 +1169,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1188,21 +1210,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1211,6 +1218,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1219,10 +1250,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1231,133 +1262,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1380,11 +1411,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
@@ -1708,10 +1739,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1722,7 +1753,8 @@
     <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="9" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="5.125" customWidth="1"/>
+    <col min="9" max="9" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1929,89 +1961,89 @@
         <v>30</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>0</v>
+      <c r="G10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" customFormat="1" spans="1:9">
-      <c r="A11" s="1">
+    <row r="11" customFormat="1"/>
+    <row r="12" customFormat="1" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
+    </row>
+    <row r="14" customFormat="1" spans="1:9">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" customFormat="1"/>
-    <row r="13" customFormat="1" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" customFormat="1" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" customFormat="1" spans="1:9">
       <c r="A15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -2019,62 +2051,70 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" customFormat="1" spans="1:9">
+    </row>
+    <row r="16" customFormat="1" ht="27" spans="1:9">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>13</v>
+      <c r="I16" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:9">
       <c r="A17" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>13</v>
+      <c r="I17" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:9">
       <c r="A18" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
@@ -2084,60 +2124,60 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:9">
       <c r="A19" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
+      <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" customFormat="1" spans="1:9">
       <c r="A20" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" customFormat="1" spans="1:9">
       <c r="A21" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>12</v>
@@ -2152,430 +2192,442 @@
     </row>
     <row r="22" customFormat="1" spans="1:9">
       <c r="A22" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E22" s="1">
-        <v>50</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" customFormat="1" spans="1:9">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="1">
+        <v>10</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="5" t="s">
+    <row r="24" customFormat="1" spans="1:9">
+      <c r="A24" s="1">
+        <v>11</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:9">
+      <c r="A25" s="1">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1">
         <v>50</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:9">
+      <c r="A26" s="1">
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="1">
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E31" s="1">
         <v>50</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="1" t="s">
+    <row r="36" spans="1:9">
+      <c r="A36" s="1">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="1">
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
         <v>2</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E37" s="1">
         <v>50</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="1">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="1">
         <v>3</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E38" s="1">
         <v>50</v>
       </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="37" customFormat="1"/>
-    <row r="38" spans="1:9">
-      <c r="A38" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="40" customFormat="1"/>
+    <row r="41" spans="1:9">
+      <c r="A41" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="1">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="1" t="s">
+    <row r="43" spans="1:9">
+      <c r="A43" s="1">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="1">
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1">
         <v>2</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="B44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E44" s="1">
         <v>50</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="1">
-        <v>1</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="1">
-        <v>2</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1">
-        <v>3</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>12</v>
@@ -2583,265 +2635,269 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I48" s="1"/>
     </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1">
+        <v>2</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="A51" s="1">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I55" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="1">
-        <v>1</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D53" s="1" t="s">
+    <row r="56" spans="1:9">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="1">
-        <v>2</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1">
-        <v>3</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="1">
-        <v>4</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" s="1">
-        <v>50</v>
-      </c>
+      <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="H56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E57" s="1"/>
-      <c r="F57" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="H57" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="1">
-        <v>5</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E59" s="1">
+        <v>50</v>
+      </c>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
+      <c r="F60" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
-      <c r="I60" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E61" s="1">
+        <v>5</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
+      <c r="I62" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>12</v>
@@ -2850,24 +2906,24 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="1">
-        <v>50</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
@@ -2875,98 +2931,96 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E67" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E67" s="1">
+        <v>50</v>
+      </c>
       <c r="F67" s="1"/>
-      <c r="G67" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -2978,32 +3032,93 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" s="1">
+        <v>16</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" s="1">
+        <v>17</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="1">
+        <v>18</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A41:I41"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A54:I54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3027,18 +3142,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3046,7 +3161,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3054,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3062,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3070,7 +3185,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3078,7 +3193,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3086,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3094,7 +3209,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3102,7 +3217,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3110,7 +3225,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3118,7 +3233,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3196,18 +3311,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3215,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3223,7 +3338,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3231,7 +3346,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3239,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3247,7 +3362,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3255,7 +3370,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3263,7 +3378,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3271,7 +3386,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3279,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3301,13 +3416,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D1" s="3" t="str">
         <f t="shared" ref="D1:D13" si="0">A1&amp;B1&amp;C1&amp;CHAR(10)&amp;"private int "&amp;F1&amp;";"</f>
@@ -3316,18 +3431,18 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D2" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3336,18 +3451,18 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3356,18 +3471,18 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3376,18 +3491,18 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3396,18 +3511,18 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3416,18 +3531,18 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3436,18 +3551,18 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3456,18 +3571,18 @@
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3476,18 +3591,18 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3496,18 +3611,18 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3516,18 +3631,18 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3536,18 +3651,18 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3556,7 +3671,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3600,10 +3715,10 @@
         <v>25</v>
       </c>
       <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
         <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3611,16 +3726,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -3637,16 +3752,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3663,16 +3778,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3689,16 +3804,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3715,16 +3830,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -3741,16 +3856,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -3786,16 +3901,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4110,58 +4225,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="I1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="J1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="L1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="N1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="O1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="P1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="Q1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="R1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4172,16 +4287,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -4190,16 +4305,16 @@
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="K2">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -4211,13 +4326,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4228,16 +4343,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -4246,16 +4361,16 @@
         <v>2</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="K3">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -4267,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q3" t="b">
         <v>1</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4284,16 +4399,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -4302,16 +4417,16 @@
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="K4">
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -4323,13 +4438,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4340,16 +4455,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -4358,16 +4473,16 @@
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="K5">
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -4379,13 +4494,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4396,16 +4511,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -4414,16 +4529,16 @@
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="K6">
         <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -4435,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4452,16 +4567,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -4470,16 +4585,16 @@
         <v>6</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="K7">
         <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -4491,13 +4606,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q7" t="b">
         <v>1</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4508,16 +4623,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
@@ -4526,16 +4641,16 @@
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="K8">
         <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -4547,13 +4662,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4564,16 +4679,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -4582,16 +4697,16 @@
         <v>8</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="K9">
         <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -4603,13 +4718,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4620,16 +4735,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
@@ -4638,16 +4753,16 @@
         <v>9</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="K10">
         <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -4659,13 +4774,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4676,16 +4791,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -4694,16 +4809,16 @@
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="K11">
         <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -4715,13 +4830,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q11" t="b">
         <v>1</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4732,16 +4847,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -4750,16 +4865,16 @@
         <v>2</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="K12">
         <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -4771,13 +4886,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q12" t="b">
         <v>1</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4788,16 +4903,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D13" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -4806,16 +4921,16 @@
         <v>3</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="K13">
         <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -4827,13 +4942,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q13" t="b">
         <v>1</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4844,16 +4959,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -4862,16 +4977,16 @@
         <v>4</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="K14">
         <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -4883,13 +4998,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q14" t="b">
         <v>1</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4900,16 +5015,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D15" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
@@ -4918,16 +5033,16 @@
         <v>5</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="K15">
         <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -4939,13 +5054,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -4956,16 +5071,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D16" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -4974,16 +5089,16 @@
         <v>6</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="K16">
         <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -4995,13 +5110,13 @@
         <v>0</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q16" t="b">
         <v>1</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -5012,16 +5127,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D17" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G17" s="1">
         <v>6</v>
@@ -5030,16 +5145,16 @@
         <v>7</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="K17">
         <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -5051,13 +5166,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -5068,16 +5183,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G18" s="1">
         <v>7</v>
@@ -5086,16 +5201,16 @@
         <v>8</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K18">
         <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -5107,13 +5222,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q18" t="b">
         <v>1</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5124,16 +5239,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D19" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G19" s="1">
         <v>8</v>
@@ -5142,16 +5257,16 @@
         <v>9</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="K19">
         <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -5163,13 +5278,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -5180,16 +5295,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D20" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G20" s="1">
         <v>9</v>
@@ -5198,16 +5313,16 @@
         <v>1</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="K20">
         <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -5219,13 +5334,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -5236,16 +5351,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D21" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G21" s="1">
         <v>10</v>
@@ -5254,16 +5369,16 @@
         <v>2</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="K21">
         <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -5275,157 +5390,157 @@
         <v>0</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Q21" t="b">
         <v>0</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/CleaningStore.xlsx
+++ b/CleaningStore.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246">
   <si>
     <t>customerTable顾客表</t>
   </si>
@@ -115,7 +115,7 @@
     <t>paymentdate</t>
   </si>
   <si>
-    <t>time with time zone</t>
+    <t>timestamp with timestamp zone</t>
   </si>
   <si>
     <t>now()</t>
@@ -363,6 +363,16 @@
   </si>
   <si>
     <t>finishDate</t>
+  </si>
+  <si>
+    <t>支付状态</t>
+  </si>
+  <si>
+    <t>payStatus</t>
+  </si>
+  <si>
+    <t>0:尚未支付
+1:支付完成</t>
   </si>
   <si>
     <t>其他</t>
@@ -757,10 +767,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -772,6 +782,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -779,70 +796,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -863,6 +819,43 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -877,9 +870,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,15 +902,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,7 +919,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -936,25 +946,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,43 +988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,13 +1012,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,49 +1102,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,31 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,26 +1155,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,12 +1179,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1213,30 +1247,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -1250,149 +1260,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1413,6 +1423,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1739,10 +1752,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3109,6 +3122,31 @@
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
+    </row>
+    <row r="74" ht="27" spans="1:9">
+      <c r="A74" s="1">
+        <v>19</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="8" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3161,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3169,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3177,7 +3215,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3185,7 +3223,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3193,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3201,7 +3239,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3209,7 +3247,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3217,7 +3255,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3225,7 +3263,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3233,7 +3271,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3330,7 +3368,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3338,7 +3376,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3346,7 +3384,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3354,7 +3392,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3362,7 +3400,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3370,7 +3408,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3378,7 +3416,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3386,7 +3424,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3394,7 +3432,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3416,13 +3454,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>81</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D1" s="3" t="str">
         <f t="shared" ref="D1:D13" si="0">A1&amp;B1&amp;C1&amp;CHAR(10)&amp;"private int "&amp;F1&amp;";"</f>
@@ -3436,13 +3474,13 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D2" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3456,13 +3494,13 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3476,13 +3514,13 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3496,13 +3534,13 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3516,13 +3554,13 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3536,13 +3574,13 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3556,13 +3594,13 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3576,13 +3614,13 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3596,13 +3634,13 @@
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3616,13 +3654,13 @@
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>104</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3636,13 +3674,13 @@
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3656,13 +3694,13 @@
     </row>
     <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3726,16 +3764,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>138</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -3752,16 +3790,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>141</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3778,16 +3816,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>139</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>136</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3804,16 +3842,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>145</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3830,16 +3868,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>147</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -3856,16 +3894,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -4286,17 +4324,17 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>149</v>
+      <c r="C2" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -4304,17 +4342,17 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>152</v>
+      <c r="I2" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="K2">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -4325,14 +4363,14 @@
       <c r="O2" t="b">
         <v>0</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>152</v>
+      <c r="P2" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>152</v>
+      <c r="R2" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4342,17 +4380,17 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>149</v>
+      <c r="C3" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -4360,17 +4398,17 @@
       <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>156</v>
+      <c r="I3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>159</v>
       </c>
       <c r="K3">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -4381,14 +4419,14 @@
       <c r="O3" t="b">
         <v>0</v>
       </c>
-      <c r="P3" s="8" t="s">
-        <v>152</v>
+      <c r="P3" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q3" t="b">
         <v>1</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>152</v>
+      <c r="R3" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4398,17 +4436,17 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>149</v>
+      <c r="C4" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -4416,17 +4454,17 @@
       <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>159</v>
+      <c r="I4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="K4">
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -4437,14 +4475,14 @@
       <c r="O4" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>152</v>
+      <c r="P4" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="R4" s="8" t="s">
-        <v>152</v>
+      <c r="R4" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4454,17 +4492,17 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>161</v>
+      <c r="C5" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -4472,17 +4510,17 @@
       <c r="H5" s="1">
         <v>4</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>163</v>
+      <c r="I5" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="K5">
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -4493,14 +4531,14 @@
       <c r="O5" t="b">
         <v>0</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>152</v>
+      <c r="P5" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
       </c>
-      <c r="R5" s="8" t="s">
-        <v>152</v>
+      <c r="R5" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4510,17 +4548,17 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>165</v>
+      <c r="C6" s="9" t="s">
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -4528,17 +4566,17 @@
       <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>167</v>
+      <c r="I6" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="K6">
         <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -4549,14 +4587,14 @@
       <c r="O6" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="8" t="s">
-        <v>152</v>
+      <c r="P6" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
       </c>
-      <c r="R6" s="8" t="s">
-        <v>152</v>
+      <c r="R6" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4566,17 +4604,17 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>169</v>
+      <c r="C7" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -4584,17 +4622,17 @@
       <c r="H7" s="1">
         <v>6</v>
       </c>
-      <c r="I7" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>171</v>
+      <c r="I7" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>174</v>
       </c>
       <c r="K7">
         <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -4605,14 +4643,14 @@
       <c r="O7" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="8" t="s">
-        <v>152</v>
+      <c r="P7" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q7" t="b">
         <v>1</v>
       </c>
-      <c r="R7" s="8" t="s">
-        <v>152</v>
+      <c r="R7" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4622,17 +4660,17 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>173</v>
+      <c r="C8" s="9" t="s">
+        <v>176</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
@@ -4640,17 +4678,17 @@
       <c r="H8" s="1">
         <v>7</v>
       </c>
-      <c r="I8" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>175</v>
+      <c r="I8" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>178</v>
       </c>
       <c r="K8">
         <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -4661,14 +4699,14 @@
       <c r="O8" t="b">
         <v>0</v>
       </c>
-      <c r="P8" s="8" t="s">
-        <v>152</v>
+      <c r="P8" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
       </c>
-      <c r="R8" s="8" t="s">
-        <v>152</v>
+      <c r="R8" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4678,17 +4716,17 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>177</v>
+      <c r="C9" s="9" t="s">
+        <v>180</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -4696,17 +4734,17 @@
       <c r="H9" s="1">
         <v>8</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>179</v>
+      <c r="I9" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="K9">
         <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -4717,14 +4755,14 @@
       <c r="O9" t="b">
         <v>0</v>
       </c>
-      <c r="P9" s="8" t="s">
-        <v>152</v>
+      <c r="P9" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
       </c>
-      <c r="R9" s="8" t="s">
-        <v>152</v>
+      <c r="R9" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4734,17 +4772,17 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>181</v>
+      <c r="C10" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
@@ -4752,17 +4790,17 @@
       <c r="H10" s="1">
         <v>9</v>
       </c>
-      <c r="I10" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>183</v>
+      <c r="I10" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>186</v>
       </c>
       <c r="K10">
         <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -4773,14 +4811,14 @@
       <c r="O10" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="8" t="s">
-        <v>152</v>
+      <c r="P10" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
       </c>
-      <c r="R10" s="8" t="s">
-        <v>152</v>
+      <c r="R10" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4790,17 +4828,17 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>185</v>
+      <c r="C11" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="D11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -4808,17 +4846,17 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>187</v>
+      <c r="I11" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="K11">
         <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -4829,14 +4867,14 @@
       <c r="O11" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="8" t="s">
-        <v>152</v>
+      <c r="P11" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q11" t="b">
         <v>1</v>
       </c>
-      <c r="R11" s="8" t="s">
-        <v>152</v>
+      <c r="R11" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4846,17 +4884,17 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>189</v>
+      <c r="C12" s="9" t="s">
+        <v>192</v>
       </c>
       <c r="D12" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -4864,17 +4902,17 @@
       <c r="H12" s="1">
         <v>2</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>191</v>
+      <c r="I12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="K12">
         <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -4885,14 +4923,14 @@
       <c r="O12" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="8" t="s">
-        <v>152</v>
+      <c r="P12" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q12" t="b">
         <v>1</v>
       </c>
-      <c r="R12" s="8" t="s">
-        <v>152</v>
+      <c r="R12" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4902,17 +4940,17 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>193</v>
+      <c r="C13" s="9" t="s">
+        <v>196</v>
       </c>
       <c r="D13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -4920,17 +4958,17 @@
       <c r="H13" s="1">
         <v>3</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>195</v>
+      <c r="I13" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="K13">
         <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -4941,14 +4979,14 @@
       <c r="O13" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="8" t="s">
-        <v>152</v>
+      <c r="P13" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q13" t="b">
         <v>1</v>
       </c>
-      <c r="R13" s="8" t="s">
-        <v>152</v>
+      <c r="R13" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4958,17 +4996,17 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>197</v>
+      <c r="C14" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -4976,17 +5014,17 @@
       <c r="H14" s="1">
         <v>4</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>200</v>
+      <c r="I14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="K14">
         <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -4997,14 +5035,14 @@
       <c r="O14" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="8" t="s">
-        <v>152</v>
+      <c r="P14" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q14" t="b">
         <v>1</v>
       </c>
-      <c r="R14" s="8" t="s">
-        <v>152</v>
+      <c r="R14" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -5014,17 +5052,17 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>202</v>
+      <c r="C15" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="D15" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
@@ -5032,17 +5070,17 @@
       <c r="H15" s="1">
         <v>5</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>205</v>
+      <c r="I15" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="K15">
         <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -5053,14 +5091,14 @@
       <c r="O15" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="8" t="s">
-        <v>152</v>
+      <c r="P15" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
       </c>
-      <c r="R15" s="8" t="s">
-        <v>152</v>
+      <c r="R15" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5070,17 +5108,17 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>207</v>
+      <c r="C16" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="D16" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -5088,17 +5126,17 @@
       <c r="H16" s="1">
         <v>6</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>209</v>
+      <c r="I16" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="K16">
         <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -5109,14 +5147,14 @@
       <c r="O16" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="8" t="s">
-        <v>152</v>
+      <c r="P16" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q16" t="b">
         <v>1</v>
       </c>
-      <c r="R16" s="8" t="s">
-        <v>152</v>
+      <c r="R16" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -5126,17 +5164,17 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>211</v>
+      <c r="C17" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G17" s="1">
         <v>6</v>
@@ -5144,17 +5182,17 @@
       <c r="H17" s="1">
         <v>7</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>213</v>
+      <c r="I17" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="K17">
         <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -5165,14 +5203,14 @@
       <c r="O17" t="b">
         <v>0</v>
       </c>
-      <c r="P17" s="8" t="s">
-        <v>152</v>
+      <c r="P17" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
       </c>
-      <c r="R17" s="8" t="s">
-        <v>152</v>
+      <c r="R17" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -5182,17 +5220,17 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>215</v>
+      <c r="C18" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G18" s="1">
         <v>7</v>
@@ -5200,17 +5238,17 @@
       <c r="H18" s="1">
         <v>8</v>
       </c>
-      <c r="I18" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>217</v>
+      <c r="I18" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>220</v>
       </c>
       <c r="K18">
         <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -5221,14 +5259,14 @@
       <c r="O18" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="8" t="s">
-        <v>152</v>
+      <c r="P18" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q18" t="b">
         <v>1</v>
       </c>
-      <c r="R18" s="8" t="s">
-        <v>152</v>
+      <c r="R18" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5238,17 +5276,17 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>215</v>
+      <c r="C19" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="D19" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G19" s="1">
         <v>8</v>
@@ -5256,17 +5294,17 @@
       <c r="H19" s="1">
         <v>9</v>
       </c>
-      <c r="I19" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>219</v>
+      <c r="I19" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="K19">
         <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -5277,14 +5315,14 @@
       <c r="O19" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="8" t="s">
-        <v>152</v>
+      <c r="P19" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
       </c>
-      <c r="R19" s="8" t="s">
-        <v>152</v>
+      <c r="R19" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -5294,17 +5332,17 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>215</v>
+      <c r="C20" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="D20" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G20" s="1">
         <v>9</v>
@@ -5312,17 +5350,17 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>221</v>
+      <c r="I20" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="K20">
         <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -5333,14 +5371,14 @@
       <c r="O20" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="8" t="s">
-        <v>152</v>
+      <c r="P20" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
       </c>
-      <c r="R20" s="8" t="s">
-        <v>152</v>
+      <c r="R20" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -5350,17 +5388,17 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>215</v>
+      <c r="C21" s="9" t="s">
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G21" s="1">
         <v>10</v>
@@ -5368,17 +5406,17 @@
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="I21" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>223</v>
+      <c r="I21" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>226</v>
       </c>
       <c r="K21">
         <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -5389,14 +5427,14 @@
       <c r="O21" t="b">
         <v>0</v>
       </c>
-      <c r="P21" s="8" t="s">
-        <v>152</v>
+      <c r="P21" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="Q21" t="b">
         <v>0</v>
       </c>
-      <c r="R21" s="8" t="s">
-        <v>152</v>
+      <c r="R21" s="9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5404,7 +5442,7 @@
         <v>81</v>
       </c>
       <c r="B22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5412,7 +5450,7 @@
         <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5420,7 +5458,7 @@
         <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5428,7 +5466,7 @@
         <v>87</v>
       </c>
       <c r="B25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5436,7 +5474,7 @@
         <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5444,7 +5482,7 @@
         <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5452,7 +5490,7 @@
         <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5460,7 +5498,7 @@
         <v>73</v>
       </c>
       <c r="B29" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -5468,7 +5506,7 @@
         <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -5476,7 +5514,7 @@
         <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -5484,7 +5522,7 @@
         <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -5492,7 +5530,7 @@
         <v>100</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -5500,7 +5538,7 @@
         <v>102</v>
       </c>
       <c r="B34" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -5508,7 +5546,7 @@
         <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -5516,7 +5554,7 @@
         <v>106</v>
       </c>
       <c r="B36" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -5524,7 +5562,7 @@
         <v>108</v>
       </c>
       <c r="B37" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5532,7 +5570,7 @@
         <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -5540,7 +5578,7 @@
         <v>112</v>
       </c>
       <c r="B39" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/CleaningStore.xlsx
+++ b/CleaningStore.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
   <si>
     <t>customerTable顾客表</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>thingName</t>
+  </si>
+  <si>
+    <t>排序番号</t>
+  </si>
+  <si>
+    <t>sortNumber</t>
   </si>
   <si>
     <t>storeTable店铺表</t>
@@ -767,10 +773,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -789,14 +795,82 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,37 +892,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -856,7 +901,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,48 +915,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -946,37 +952,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,7 +982,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1006,25 +1024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,43 +1036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,19 +1066,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,19 +1084,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,6 +1170,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1196,11 +1211,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1222,8 +1235,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1243,15 +1258,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1260,149 +1266,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1423,9 +1429,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1752,10 +1755,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2396,72 +2399,70 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="5" t="s">
+    <row r="32" spans="1:9">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="C32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="1">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>68</v>
@@ -2470,21 +2471,19 @@
         <v>69</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" s="1">
-        <v>50</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>70</v>
@@ -2498,78 +2497,80 @@
       <c r="E38" s="1">
         <v>50</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="40" customFormat="1"/>
-    <row r="41" spans="1:9">
-      <c r="A41" s="5" t="s">
+    <row r="39" spans="1:9">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
+      <c r="C39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="1">
+        <v>50</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="41" customFormat="1"/>
     <row r="42" spans="1:9">
-      <c r="A42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="1" t="s">
+      <c r="A42" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="1">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>75</v>
@@ -2578,111 +2579,109 @@
         <v>76</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="1">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E45" s="1">
         <v>50</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1" t="s">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I49" s="1" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="1">
-        <v>1</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="1">
-        <v>2</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>12</v>
@@ -2690,20 +2689,20 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>12</v>
@@ -2712,145 +2711,146 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="6" t="s">
+      <c r="I51" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="1">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="1">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" spans="1:9">
-      <c r="A55" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="F57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I57" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="1">
-        <v>1</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="1">
-        <v>2</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="1">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1">
-        <v>4</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="C59" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="1">
-        <v>50</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="H59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
@@ -2858,121 +2858,124 @@
       </c>
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E61" s="1">
-        <v>5</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
+      <c r="F62" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
-      <c r="I62" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E63" s="1">
+        <v>5</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
-      <c r="I63" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
+      <c r="I65" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
@@ -2982,20 +2985,18 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="1">
-        <v>50</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
@@ -3003,58 +3004,56 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E69" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E69" s="1">
+        <v>50</v>
+      </c>
       <c r="F69" s="1"/>
-      <c r="G69" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="G69" s="1"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
@@ -3066,35 +3065,37 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3106,13 +3107,13 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>31</v>
@@ -3123,29 +3124,69 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" ht="27" spans="1:9">
+    <row r="74" spans="1:9">
       <c r="A74" s="1">
+        <v>17</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" s="1">
+        <v>18</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" ht="27" spans="1:9">
+      <c r="A76" s="1">
         <v>19</v>
       </c>
-      <c r="B74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="B76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1" t="s">
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G74" s="1">
-        <v>0</v>
-      </c>
-      <c r="H74" s="1"/>
-      <c r="I74" s="8" t="s">
-        <v>116</v>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="7" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -3153,10 +3194,10 @@
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A41:I41"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A56:I56"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3180,7 +3221,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>63</v>
@@ -3199,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3207,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3215,7 +3256,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3223,7 +3264,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3231,7 +3272,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3239,7 +3280,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3247,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3255,7 +3296,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3263,7 +3304,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3271,7 +3312,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3349,18 +3390,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3368,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3376,7 +3417,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3384,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3392,7 +3433,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3400,7 +3441,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3408,7 +3449,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3416,7 +3457,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3424,7 +3465,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3432,7 +3473,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3454,13 +3495,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="3" t="str">
         <f t="shared" ref="D1:D13" si="0">A1&amp;B1&amp;C1&amp;CHAR(10)&amp;"private int "&amp;F1&amp;";"</f>
@@ -3469,18 +3510,18 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3494,13 +3535,13 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3509,18 +3550,18 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3534,13 +3575,13 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3549,18 +3590,18 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3569,18 +3610,18 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3589,18 +3630,18 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3614,13 +3655,13 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3629,18 +3670,18 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3649,18 +3690,18 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3669,18 +3710,18 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3689,18 +3730,18 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3709,7 +3750,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3764,16 +3805,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -3790,16 +3831,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3816,16 +3857,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>145</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3842,16 +3883,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3868,16 +3909,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -3894,16 +3935,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -3939,16 +3980,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4263,58 +4304,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4324,17 +4365,17 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>152</v>
+      <c r="C2" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -4342,17 +4383,17 @@
       <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>155</v>
+      <c r="I2" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="K2">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -4363,14 +4404,14 @@
       <c r="O2" t="b">
         <v>0</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>155</v>
+      <c r="P2" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
       </c>
-      <c r="R2" s="9" t="s">
-        <v>155</v>
+      <c r="R2" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4380,17 +4421,17 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>152</v>
+      <c r="C3" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -4398,17 +4439,17 @@
       <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>159</v>
+      <c r="I3" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="K3">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -4419,14 +4460,14 @@
       <c r="O3" t="b">
         <v>0</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>155</v>
+      <c r="P3" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q3" t="b">
         <v>1</v>
       </c>
-      <c r="R3" s="9" t="s">
-        <v>155</v>
+      <c r="R3" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4436,17 +4477,17 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>152</v>
+      <c r="C4" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -4454,17 +4495,17 @@
       <c r="H4" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>162</v>
+      <c r="I4" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>164</v>
       </c>
       <c r="K4">
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -4475,14 +4516,14 @@
       <c r="O4" t="b">
         <v>0</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>155</v>
+      <c r="P4" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
-      <c r="R4" s="9" t="s">
-        <v>155</v>
+      <c r="R4" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4492,17 +4533,17 @@
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>164</v>
+      <c r="C5" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -4510,17 +4551,17 @@
       <c r="H5" s="1">
         <v>4</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>166</v>
+      <c r="I5" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="K5">
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -4531,14 +4572,14 @@
       <c r="O5" t="b">
         <v>0</v>
       </c>
-      <c r="P5" s="9" t="s">
-        <v>155</v>
+      <c r="P5" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
       </c>
-      <c r="R5" s="9" t="s">
-        <v>155</v>
+      <c r="R5" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4548,17 +4589,17 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>168</v>
+      <c r="C6" s="8" t="s">
+        <v>170</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -4566,17 +4607,17 @@
       <c r="H6" s="1">
         <v>5</v>
       </c>
-      <c r="I6" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>170</v>
+      <c r="I6" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>172</v>
       </c>
       <c r="K6">
         <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -4587,14 +4628,14 @@
       <c r="O6" t="b">
         <v>0</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>155</v>
+      <c r="P6" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>155</v>
+      <c r="R6" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4604,17 +4645,17 @@
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>172</v>
+      <c r="C7" s="8" t="s">
+        <v>174</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -4622,17 +4663,17 @@
       <c r="H7" s="1">
         <v>6</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>174</v>
+      <c r="I7" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="K7">
         <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -4643,14 +4684,14 @@
       <c r="O7" t="b">
         <v>0</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>155</v>
+      <c r="P7" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q7" t="b">
         <v>1</v>
       </c>
-      <c r="R7" s="9" t="s">
-        <v>155</v>
+      <c r="R7" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4660,17 +4701,17 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>176</v>
+      <c r="C8" s="8" t="s">
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
@@ -4678,17 +4719,17 @@
       <c r="H8" s="1">
         <v>7</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>178</v>
+      <c r="I8" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="K8">
         <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -4699,14 +4740,14 @@
       <c r="O8" t="b">
         <v>0</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>155</v>
+      <c r="P8" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
       </c>
-      <c r="R8" s="9" t="s">
-        <v>155</v>
+      <c r="R8" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4716,17 +4757,17 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>180</v>
+      <c r="C9" s="8" t="s">
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -4734,17 +4775,17 @@
       <c r="H9" s="1">
         <v>8</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>182</v>
+      <c r="I9" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="K9">
         <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -4755,14 +4796,14 @@
       <c r="O9" t="b">
         <v>0</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>155</v>
+      <c r="P9" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>155</v>
+      <c r="R9" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4772,17 +4813,17 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>184</v>
+      <c r="C10" s="8" t="s">
+        <v>186</v>
       </c>
       <c r="D10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
@@ -4790,17 +4831,17 @@
       <c r="H10" s="1">
         <v>9</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>186</v>
+      <c r="I10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="K10">
         <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -4811,14 +4852,14 @@
       <c r="O10" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>155</v>
+      <c r="P10" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
       </c>
-      <c r="R10" s="9" t="s">
-        <v>155</v>
+      <c r="R10" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4828,17 +4869,17 @@
       <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>188</v>
+      <c r="C11" s="8" t="s">
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -4846,17 +4887,17 @@
       <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>190</v>
+      <c r="I11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>192</v>
       </c>
       <c r="K11">
         <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -4867,14 +4908,14 @@
       <c r="O11" t="b">
         <v>0</v>
       </c>
-      <c r="P11" s="9" t="s">
-        <v>155</v>
+      <c r="P11" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q11" t="b">
         <v>1</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>155</v>
+      <c r="R11" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4884,17 +4925,17 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>192</v>
+      <c r="C12" s="8" t="s">
+        <v>194</v>
       </c>
       <c r="D12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -4902,17 +4943,17 @@
       <c r="H12" s="1">
         <v>2</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>194</v>
+      <c r="I12" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>196</v>
       </c>
       <c r="K12">
         <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -4923,14 +4964,14 @@
       <c r="O12" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>155</v>
+      <c r="P12" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q12" t="b">
         <v>1</v>
       </c>
-      <c r="R12" s="9" t="s">
-        <v>155</v>
+      <c r="R12" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4940,17 +4981,17 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>196</v>
+      <c r="C13" s="8" t="s">
+        <v>198</v>
       </c>
       <c r="D13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -4958,17 +4999,17 @@
       <c r="H13" s="1">
         <v>3</v>
       </c>
-      <c r="I13" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>198</v>
+      <c r="I13" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>200</v>
       </c>
       <c r="K13">
         <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -4979,14 +5020,14 @@
       <c r="O13" t="b">
         <v>0</v>
       </c>
-      <c r="P13" s="9" t="s">
-        <v>155</v>
+      <c r="P13" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q13" t="b">
         <v>1</v>
       </c>
-      <c r="R13" s="9" t="s">
-        <v>155</v>
+      <c r="R13" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4996,17 +5037,17 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>200</v>
+      <c r="C14" s="8" t="s">
+        <v>202</v>
       </c>
       <c r="D14" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -5014,17 +5055,17 @@
       <c r="H14" s="1">
         <v>4</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>203</v>
+      <c r="I14" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="K14">
         <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -5035,14 +5076,14 @@
       <c r="O14" t="b">
         <v>0</v>
       </c>
-      <c r="P14" s="9" t="s">
-        <v>155</v>
+      <c r="P14" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q14" t="b">
         <v>1</v>
       </c>
-      <c r="R14" s="9" t="s">
-        <v>155</v>
+      <c r="R14" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -5052,17 +5093,17 @@
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>205</v>
+      <c r="C15" s="8" t="s">
+        <v>207</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
@@ -5070,17 +5111,17 @@
       <c r="H15" s="1">
         <v>5</v>
       </c>
-      <c r="I15" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>208</v>
+      <c r="I15" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>210</v>
       </c>
       <c r="K15">
         <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -5091,14 +5132,14 @@
       <c r="O15" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="9" t="s">
-        <v>155</v>
+      <c r="P15" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
       </c>
-      <c r="R15" s="9" t="s">
-        <v>155</v>
+      <c r="R15" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5108,17 +5149,17 @@
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>210</v>
+      <c r="C16" s="8" t="s">
+        <v>212</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -5126,17 +5167,17 @@
       <c r="H16" s="1">
         <v>6</v>
       </c>
-      <c r="I16" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>212</v>
+      <c r="I16" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="K16">
         <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -5147,14 +5188,14 @@
       <c r="O16" t="b">
         <v>0</v>
       </c>
-      <c r="P16" s="9" t="s">
-        <v>155</v>
+      <c r="P16" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q16" t="b">
         <v>1</v>
       </c>
-      <c r="R16" s="9" t="s">
-        <v>155</v>
+      <c r="R16" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -5164,17 +5205,17 @@
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>214</v>
+      <c r="C17" s="8" t="s">
+        <v>216</v>
       </c>
       <c r="D17" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G17" s="1">
         <v>6</v>
@@ -5182,17 +5223,17 @@
       <c r="H17" s="1">
         <v>7</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>216</v>
+      <c r="I17" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>218</v>
       </c>
       <c r="K17">
         <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -5203,14 +5244,14 @@
       <c r="O17" t="b">
         <v>0</v>
       </c>
-      <c r="P17" s="9" t="s">
-        <v>155</v>
+      <c r="P17" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
       </c>
-      <c r="R17" s="9" t="s">
-        <v>155</v>
+      <c r="R17" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -5220,17 +5261,17 @@
       <c r="B18">
         <v>1</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>218</v>
+      <c r="C18" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G18" s="1">
         <v>7</v>
@@ -5238,17 +5279,17 @@
       <c r="H18" s="1">
         <v>8</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>220</v>
+      <c r="I18" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>222</v>
       </c>
       <c r="K18">
         <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -5259,14 +5300,14 @@
       <c r="O18" t="b">
         <v>0</v>
       </c>
-      <c r="P18" s="9" t="s">
-        <v>155</v>
+      <c r="P18" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q18" t="b">
         <v>1</v>
       </c>
-      <c r="R18" s="9" t="s">
-        <v>155</v>
+      <c r="R18" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5276,17 +5317,17 @@
       <c r="B19">
         <v>1</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>218</v>
+      <c r="C19" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G19" s="1">
         <v>8</v>
@@ -5294,17 +5335,17 @@
       <c r="H19" s="1">
         <v>9</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>222</v>
+      <c r="I19" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="K19">
         <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -5315,14 +5356,14 @@
       <c r="O19" t="b">
         <v>0</v>
       </c>
-      <c r="P19" s="9" t="s">
-        <v>155</v>
+      <c r="P19" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
       </c>
-      <c r="R19" s="9" t="s">
-        <v>155</v>
+      <c r="R19" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -5332,17 +5373,17 @@
       <c r="B20">
         <v>1</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>218</v>
+      <c r="C20" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D20" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G20" s="1">
         <v>9</v>
@@ -5350,17 +5391,17 @@
       <c r="H20">
         <v>1</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>224</v>
+      <c r="I20" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>226</v>
       </c>
       <c r="K20">
         <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -5371,14 +5412,14 @@
       <c r="O20" t="b">
         <v>0</v>
       </c>
-      <c r="P20" s="9" t="s">
-        <v>155</v>
+      <c r="P20" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
       </c>
-      <c r="R20" s="9" t="s">
-        <v>155</v>
+      <c r="R20" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -5388,17 +5429,17 @@
       <c r="B21">
         <v>1</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>218</v>
+      <c r="C21" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="D21" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G21" s="1">
         <v>10</v>
@@ -5406,17 +5447,17 @@
       <c r="H21">
         <v>2</v>
       </c>
-      <c r="I21" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>226</v>
+      <c r="I21" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>228</v>
       </c>
       <c r="K21">
         <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -5427,158 +5468,158 @@
       <c r="O21" t="b">
         <v>0</v>
       </c>
-      <c r="P21" s="9" t="s">
-        <v>155</v>
+      <c r="P21" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="Q21" t="b">
         <v>0</v>
       </c>
-      <c r="R21" s="9" t="s">
-        <v>155</v>
+      <c r="R21" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B30" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B37" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/CleaningStore.xlsx
+++ b/CleaningStore.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
   <si>
     <t>customerTable顾客表</t>
   </si>
@@ -296,6 +296,12 @@
     <t>otherName</t>
   </si>
   <si>
+    <t>衣物颜色</t>
+  </si>
+  <si>
+    <t>thingColor</t>
+  </si>
+  <si>
     <t>洗衣件数</t>
   </si>
   <si>
@@ -357,6 +363,15 @@
   </si>
   <si>
     <t>deletedDate</t>
+  </si>
+  <si>
+    <t>消除备注</t>
+  </si>
+  <si>
+    <t>deletedMemo</t>
+  </si>
+  <si>
+    <t>该明细取消原因等</t>
   </si>
   <si>
     <t>完成旗帜</t>
@@ -774,9 +789,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -795,7 +810,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -803,6 +818,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,6 +839,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -824,8 +855,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,7 +886,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -853,40 +900,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -907,17 +923,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,6 +935,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -952,7 +967,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,114 +1009,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1090,7 +1021,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,13 +1039,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,19 +1129,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,39 +1176,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1205,15 +1187,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,10 +1208,37 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1258,6 +1258,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1266,145 +1281,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1755,10 +1770,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2891,12 +2906,12 @@
         <v>92</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E62" s="1">
+        <v>7</v>
+      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
     </row>
@@ -2911,18 +2926,16 @@
         <v>94</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="1">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>7</v>
       </c>
@@ -2930,28 +2943,29 @@
         <v>95</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E64" s="1">
+        <v>5</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="1">
         <v>8</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>12</v>
@@ -2969,32 +2983,34 @@
         <v>9</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
+      <c r="I66" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
         <v>10</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
@@ -3010,10 +3026,10 @@
         <v>101</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3026,17 +3042,15 @@
         <v>12</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="1">
-        <v>50</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
@@ -3053,13 +3067,13 @@
         <v>105</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E70" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E70" s="1">
+        <v>50</v>
+      </c>
       <c r="F70" s="1"/>
-      <c r="G70" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
@@ -3074,7 +3088,7 @@
         <v>107</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3095,7 +3109,7 @@
         <v>109</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3116,11 +3130,13 @@
         <v>111</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
+      <c r="G73" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
@@ -3135,13 +3151,11 @@
         <v>113</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
@@ -3156,37 +3170,81 @@
         <v>115</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E75" s="1">
+        <v>50</v>
+      </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-    </row>
-    <row r="76" ht="27" spans="1:9">
+      <c r="I75" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1">
         <v>19</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" s="1">
         <v>20</v>
       </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1" t="s">
+      <c r="B77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" ht="27" spans="1:9">
+      <c r="A78" s="1">
+        <v>21</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G76" s="1">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1"/>
-      <c r="I76" s="7" t="s">
-        <v>118</v>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1"/>
+      <c r="I78" s="7" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3221,7 +3279,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>63</v>
@@ -3240,7 +3298,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3248,7 +3306,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3256,7 +3314,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3264,7 +3322,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3272,7 +3330,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3280,7 +3338,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3288,7 +3346,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3296,7 +3354,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3304,7 +3362,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3312,7 +3370,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3409,7 +3467,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3417,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3425,7 +3483,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3433,7 +3491,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3441,7 +3499,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3449,7 +3507,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3457,7 +3515,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3465,7 +3523,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3473,7 +3531,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3495,13 +3553,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D1" s="3" t="str">
         <f t="shared" ref="D1:D13" si="0">A1&amp;B1&amp;C1&amp;CHAR(10)&amp;"private int "&amp;F1&amp;";"</f>
@@ -3515,13 +3573,13 @@
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D2" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3535,13 +3593,13 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3555,13 +3613,13 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3575,13 +3633,13 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3595,13 +3653,13 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3610,18 +3668,18 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3630,18 +3688,18 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3655,13 +3713,13 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3670,18 +3728,18 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3690,18 +3748,18 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3710,18 +3768,18 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3730,18 +3788,18 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3750,7 +3808,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3805,16 +3863,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -3831,16 +3889,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3857,16 +3915,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3883,16 +3941,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3909,16 +3967,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -3935,16 +3993,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -4316,46 +4374,46 @@
         <v>89</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" t="s">
         <v>75</v>
       </c>
       <c r="I1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="R1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4366,16 +4424,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -4384,16 +4442,16 @@
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K2">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -4405,13 +4463,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4422,16 +4480,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -4440,34 +4498,34 @@
         <v>2</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K3">
         <v>30</v>
       </c>
       <c r="L3" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="Q3" t="b">
         <v>1</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4478,16 +4536,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -4496,16 +4554,16 @@
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="K4">
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -4517,13 +4575,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4534,16 +4592,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -4552,16 +4610,16 @@
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K5">
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -4573,13 +4631,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4590,16 +4648,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -4608,16 +4666,16 @@
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="K6">
         <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -4629,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4646,16 +4704,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -4664,16 +4722,16 @@
         <v>6</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="K7">
         <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -4685,13 +4743,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q7" t="b">
         <v>1</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4702,16 +4760,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
@@ -4720,16 +4778,16 @@
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="K8">
         <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -4741,13 +4799,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4758,16 +4816,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -4776,16 +4834,16 @@
         <v>8</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="K9">
         <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -4797,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4814,16 +4872,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
@@ -4832,16 +4890,16 @@
         <v>9</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="K10">
         <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -4853,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4870,16 +4928,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -4888,16 +4946,16 @@
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="K11">
         <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -4909,13 +4967,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q11" t="b">
         <v>1</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4926,16 +4984,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -4944,16 +5002,16 @@
         <v>2</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="K12">
         <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -4965,13 +5023,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q12" t="b">
         <v>1</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4982,16 +5040,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -5000,16 +5058,16 @@
         <v>3</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K13">
         <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -5021,13 +5079,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q13" t="b">
         <v>1</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -5038,16 +5096,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -5056,16 +5114,16 @@
         <v>4</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="K14">
         <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -5077,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q14" t="b">
         <v>1</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -5094,16 +5152,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D15" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
@@ -5112,16 +5170,16 @@
         <v>5</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K15">
         <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -5133,13 +5191,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5150,16 +5208,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D16" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -5168,16 +5226,16 @@
         <v>6</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="K16">
         <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -5189,13 +5247,13 @@
         <v>0</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q16" t="b">
         <v>1</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -5206,16 +5264,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D17" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G17" s="1">
         <v>6</v>
@@ -5224,16 +5282,16 @@
         <v>7</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="K17">
         <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -5245,13 +5303,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -5262,16 +5320,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G18" s="1">
         <v>7</v>
@@ -5280,16 +5338,16 @@
         <v>8</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K18">
         <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -5301,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q18" t="b">
         <v>1</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5318,16 +5376,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G19" s="1">
         <v>8</v>
@@ -5336,16 +5394,16 @@
         <v>9</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="K19">
         <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -5357,13 +5415,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -5374,16 +5432,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D20" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G20" s="1">
         <v>9</v>
@@ -5392,16 +5450,16 @@
         <v>1</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="K20">
         <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -5413,13 +5471,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -5430,16 +5488,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="D21" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G21" s="1">
         <v>10</v>
@@ -5448,16 +5506,16 @@
         <v>2</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="K21">
         <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -5469,13 +5527,13 @@
         <v>0</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q21" t="b">
         <v>0</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5483,7 +5541,7 @@
         <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5491,7 +5549,7 @@
         <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5499,7 +5557,7 @@
         <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5507,31 +5565,31 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B26" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -5539,87 +5597,87 @@
         <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/CleaningStore.xlsx
+++ b/CleaningStore.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255">
   <si>
     <t>customerTable顾客表</t>
   </si>
@@ -180,6 +180,12 @@
   </si>
   <si>
     <t>chargePayment</t>
+  </si>
+  <si>
+    <t>充值赠送金额</t>
+  </si>
+  <si>
+    <t>giveamount</t>
   </si>
   <si>
     <t>扣费/充值前余额</t>
@@ -809,10 +815,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -823,7 +838,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -839,14 +907,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -855,54 +915,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,17 +946,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -967,7 +973,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,7 +985,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,7 +1051,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,13 +1135,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,133 +1153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,6 +1182,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1191,6 +1206,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1202,24 +1232,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1244,21 +1256,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1273,6 +1270,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1281,10 +1287,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,133 +1299,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1770,10 +1776,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I78"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A62" sqref="A62"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2295,15 +2301,13 @@
         <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1">
-        <v>50</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
@@ -2315,85 +2319,87 @@
         <v>59</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E26" s="1">
+        <v>50</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+    <row r="27" customFormat="1" spans="1:9">
+      <c r="A27" s="1">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="A29" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I30" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>63</v>
@@ -2402,21 +2408,19 @@
         <v>64</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" s="1">
-        <v>50</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>65</v>
@@ -2425,80 +2429,82 @@
         <v>66</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E32" s="1">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="5" t="s">
+    <row r="33" spans="1:9">
+      <c r="A33" s="1">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="C33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="A36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="1">
-        <v>1</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>70</v>
@@ -2507,21 +2513,19 @@
         <v>71</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="1">
-        <v>50</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>72</v>
@@ -2535,78 +2539,80 @@
       <c r="E39" s="1">
         <v>50</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="41" customFormat="1"/>
-    <row r="42" spans="1:9">
-      <c r="A42" s="5" t="s">
+    <row r="40" spans="1:9">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-    </row>
+      <c r="C40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="1">
+        <v>50</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="42" customFormat="1"/>
     <row r="43" spans="1:9">
-      <c r="A43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
+      <c r="A43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>77</v>
@@ -2615,109 +2621,109 @@
         <v>78</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="1">
-        <v>50</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E46" s="1">
+        <v>50</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="A49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I50" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="1">
-        <v>1</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>12</v>
@@ -2725,20 +2731,20 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>12</v>
@@ -2753,13 +2759,13 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>12</v>
@@ -2768,80 +2774,80 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="56" spans="1:9">
-      <c r="A56" s="6" t="s">
+      <c r="I53" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="1">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="C54" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
     </row>
     <row r="57" spans="1:9">
-      <c r="A57" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="1" t="s">
+      <c r="A57" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F58" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="58" spans="1:9">
-      <c r="A58" s="1">
-        <v>1</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>12</v>
@@ -2856,28 +2862,28 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1">
+        <v>2</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="1">
         <v>3</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1">
-        <v>4</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>89</v>
@@ -2886,18 +2892,19 @@
         <v>90</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="1">
-        <v>50</v>
-      </c>
-      <c r="F61" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>91</v>
@@ -2906,10 +2913,10 @@
         <v>92</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E62" s="1">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -2917,7 +2924,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>93</v>
@@ -2926,18 +2933,18 @@
         <v>94</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E63" s="1">
+        <v>7</v>
+      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>95</v>
@@ -2946,47 +2953,46 @@
         <v>96</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="1">
-        <v>5</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E65" s="1">
+        <v>5</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>12</v>
@@ -3001,35 +3007,37 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
@@ -3039,16 +3047,16 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
@@ -3058,20 +3066,18 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" s="1">
-        <v>50</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -3079,7 +3085,7 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>106</v>
@@ -3088,19 +3094,19 @@
         <v>107</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E71" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="E71" s="1">
+        <v>50</v>
+      </c>
       <c r="F71" s="1"/>
-      <c r="G71" s="1" t="b">
-        <v>0</v>
-      </c>
+      <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>108</v>
@@ -3109,7 +3115,7 @@
         <v>109</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3121,7 +3127,7 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>110</v>
@@ -3130,7 +3136,7 @@
         <v>111</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3142,7 +3148,7 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>112</v>
@@ -3151,17 +3157,19 @@
         <v>113</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
+      <c r="G74" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>114</v>
@@ -3170,42 +3178,40 @@
         <v>115</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E75" s="1">
-        <v>50</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="1" t="s">
-        <v>116</v>
-      </c>
+      <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E76" s="1">
+        <v>50</v>
+      </c>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>119</v>
@@ -3214,17 +3220,19 @@
         <v>120</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
+      <c r="G77" s="1" t="b">
+        <v>0</v>
+      </c>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" ht="27" spans="1:9">
+    <row r="78" spans="1:9">
       <c r="A78" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>121</v>
@@ -3233,29 +3241,48 @@
         <v>122</v>
       </c>
       <c r="D78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" ht="27" spans="1:9">
+      <c r="A79" s="1">
+        <v>21</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1" t="s">
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G78" s="1">
-        <v>0</v>
-      </c>
-      <c r="H78" s="1"/>
-      <c r="I78" s="7" t="s">
-        <v>123</v>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="7" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A56:I56"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A57:I57"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3279,18 +3306,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3298,7 +3325,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3306,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3314,7 +3341,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3322,7 +3349,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3330,7 +3357,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3338,7 +3365,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3346,7 +3373,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3354,7 +3381,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3362,7 +3389,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -3370,7 +3397,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -3448,18 +3475,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3467,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3475,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3483,7 +3510,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3491,7 +3518,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3499,7 +3526,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3507,7 +3534,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3515,7 +3542,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3523,7 +3550,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -3531,7 +3558,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3553,13 +3580,13 @@
   <sheetData>
     <row r="1" s="2" customFormat="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="3" t="str">
         <f t="shared" ref="D1:D13" si="0">A1&amp;B1&amp;C1&amp;CHAR(10)&amp;"private int "&amp;F1&amp;";"</f>
@@ -3568,18 +3595,18 @@
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3593,13 +3620,13 @@
     </row>
     <row r="3" s="2" customFormat="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3608,18 +3635,18 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3628,18 +3655,18 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3648,18 +3675,18 @@
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3668,18 +3695,18 @@
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3688,18 +3715,18 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3713,13 +3740,13 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3728,18 +3755,18 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" s="2" customFormat="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3748,18 +3775,18 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3768,18 +3795,18 @@
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3788,18 +3815,18 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3808,7 +3835,7 @@
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3863,16 +3890,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -3889,16 +3916,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -3915,16 +3942,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -3941,16 +3968,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -3967,16 +3994,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F6">
         <v>9</v>
@@ -3993,16 +4020,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -4038,16 +4065,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4362,58 +4389,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="R1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4424,16 +4451,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -4442,16 +4469,16 @@
         <v>1</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K2">
         <v>20</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -4463,13 +4490,13 @@
         <v>0</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q2" t="b">
         <v>1</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4480,16 +4507,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
@@ -4498,16 +4525,16 @@
         <v>2</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K3">
         <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M3" t="b">
         <v>0</v>
@@ -4519,13 +4546,13 @@
         <v>0</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q3" t="b">
         <v>1</v>
       </c>
       <c r="R3" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4536,16 +4563,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
@@ -4554,16 +4581,16 @@
         <v>3</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K4">
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
@@ -4575,13 +4602,13 @@
         <v>0</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q4" t="b">
         <v>0</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4592,16 +4619,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G5" s="1">
         <v>4</v>
@@ -4610,16 +4637,16 @@
         <v>4</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K5">
         <v>50</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" t="b">
         <v>0</v>
@@ -4631,13 +4658,13 @@
         <v>0</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q5" t="b">
         <v>0</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4648,16 +4675,16 @@
         <v>2</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G6" s="1">
         <v>5</v>
@@ -4666,16 +4693,16 @@
         <v>5</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K6">
         <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -4687,13 +4714,13 @@
         <v>0</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q6" t="b">
         <v>0</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4704,16 +4731,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G7" s="1">
         <v>6</v>
@@ -4722,16 +4749,16 @@
         <v>6</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7">
         <v>70</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M7" t="b">
         <v>0</v>
@@ -4743,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q7" t="b">
         <v>1</v>
       </c>
       <c r="R7" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4760,16 +4787,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G8" s="1">
         <v>7</v>
@@ -4778,16 +4805,16 @@
         <v>7</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K8">
         <v>80</v>
       </c>
       <c r="L8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M8" t="b">
         <v>1</v>
@@ -4799,13 +4826,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q8" t="b">
         <v>0</v>
       </c>
       <c r="R8" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4816,16 +4843,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G9" s="1">
         <v>8</v>
@@ -4834,16 +4861,16 @@
         <v>8</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K9">
         <v>90</v>
       </c>
       <c r="L9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
@@ -4855,13 +4882,13 @@
         <v>0</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q9" t="b">
         <v>0</v>
       </c>
       <c r="R9" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4872,16 +4899,16 @@
         <v>2</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G10" s="1">
         <v>9</v>
@@ -4890,16 +4917,16 @@
         <v>9</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K10">
         <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -4911,13 +4938,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q10" t="b">
         <v>0</v>
       </c>
       <c r="R10" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4928,16 +4955,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G11" s="1">
         <v>10</v>
@@ -4946,16 +4973,16 @@
         <v>1</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K11">
         <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M11" t="b">
         <v>0</v>
@@ -4967,13 +4994,13 @@
         <v>0</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q11" t="b">
         <v>1</v>
       </c>
       <c r="R11" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4984,16 +5011,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -5002,16 +5029,16 @@
         <v>2</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K12">
         <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
@@ -5023,13 +5050,13 @@
         <v>0</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q12" t="b">
         <v>1</v>
       </c>
       <c r="R12" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -5040,16 +5067,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
@@ -5058,16 +5085,16 @@
         <v>3</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K13">
         <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M13" t="b">
         <v>0</v>
@@ -5079,13 +5106,13 @@
         <v>0</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q13" t="b">
         <v>1</v>
       </c>
       <c r="R13" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -5096,16 +5123,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
@@ -5114,16 +5141,16 @@
         <v>4</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K14">
         <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -5135,13 +5162,13 @@
         <v>0</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q14" t="b">
         <v>1</v>
       </c>
       <c r="R14" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -5152,16 +5179,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G15" s="1">
         <v>4</v>
@@ -5170,16 +5197,16 @@
         <v>5</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K15">
         <v>150</v>
       </c>
       <c r="L15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M15" t="b">
         <v>0</v>
@@ -5191,13 +5218,13 @@
         <v>0</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q15" t="b">
         <v>0</v>
       </c>
       <c r="R15" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -5208,16 +5235,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G16" s="1">
         <v>5</v>
@@ -5226,16 +5253,16 @@
         <v>6</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K16">
         <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -5247,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q16" t="b">
         <v>1</v>
       </c>
       <c r="R16" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -5264,16 +5291,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G17" s="1">
         <v>6</v>
@@ -5282,16 +5309,16 @@
         <v>7</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K17">
         <v>170</v>
       </c>
       <c r="L17" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
@@ -5303,13 +5330,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q17" t="b">
         <v>0</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -5320,16 +5347,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D18" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G18" s="1">
         <v>7</v>
@@ -5338,16 +5365,16 @@
         <v>8</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K18">
         <v>180</v>
       </c>
       <c r="L18" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -5359,13 +5386,13 @@
         <v>0</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q18" t="b">
         <v>1</v>
       </c>
       <c r="R18" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5376,16 +5403,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D19" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G19" s="1">
         <v>8</v>
@@ -5394,16 +5421,16 @@
         <v>9</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K19">
         <v>190</v>
       </c>
       <c r="L19" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M19" t="b">
         <v>0</v>
@@ -5415,13 +5442,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q19" t="b">
         <v>0</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -5432,16 +5459,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D20" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G20" s="1">
         <v>9</v>
@@ -5450,16 +5477,16 @@
         <v>1</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K20">
         <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -5471,13 +5498,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20" t="b">
         <v>0</v>
       </c>
       <c r="R20" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -5488,16 +5515,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G21" s="1">
         <v>10</v>
@@ -5506,16 +5533,16 @@
         <v>2</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K21">
         <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M21" t="b">
         <v>0</v>
@@ -5527,157 +5554,157 @@
         <v>0</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q21" t="b">
         <v>0</v>
       </c>
       <c r="R21" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B33" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
